--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cdh1-Ptprm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Cdh1</t>
+  </si>
+  <si>
+    <t>Ptprm</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cdh1</t>
-  </si>
-  <si>
-    <t>Ptprm</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H2">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J2">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N2">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O2">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P2">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q2">
-        <v>0.1448567416111111</v>
+        <v>55.62427079685455</v>
       </c>
       <c r="R2">
-        <v>1.3037106745</v>
+        <v>500.618437171691</v>
       </c>
       <c r="S2">
-        <v>0.0009634027231408602</v>
+        <v>0.2167190593074986</v>
       </c>
       <c r="T2">
-        <v>0.0009634027231408599</v>
+        <v>0.2167190593074987</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H3">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J3">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O3">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P3">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q3">
-        <v>0.02371200866666667</v>
+        <v>8.594811525377335</v>
       </c>
       <c r="R3">
-        <v>0.213408078</v>
+        <v>77.35330372839601</v>
       </c>
       <c r="S3">
-        <v>0.0001577021094533173</v>
+        <v>0.03348645190348012</v>
       </c>
       <c r="T3">
-        <v>0.0001577021094533173</v>
+        <v>0.03348645190348012</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H4">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J4">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N4">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O4">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P4">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q4">
-        <v>0.0001061861666666667</v>
+        <v>0.029125279946</v>
       </c>
       <c r="R4">
-        <v>0.0009556755000000001</v>
+        <v>0.262127519514</v>
       </c>
       <c r="S4">
-        <v>7.06215264742011E-07</v>
+        <v>0.0001134757037088495</v>
       </c>
       <c r="T4">
-        <v>7.062152647420109E-07</v>
+        <v>0.0001134757037088495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H5">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J5">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N5">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O5">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P5">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q5">
-        <v>0.00525080761111111</v>
+        <v>1.080126993790222</v>
       </c>
       <c r="R5">
-        <v>0.0472572685</v>
+        <v>9.721142944112</v>
       </c>
       <c r="S5">
-        <v>3.492169087175699E-05</v>
+        <v>0.004208308759349892</v>
       </c>
       <c r="T5">
-        <v>3.492169087175698E-05</v>
+        <v>0.004208308759349892</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H6">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J6">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N6">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O6">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P6">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q6">
-        <v>0.0002584190555555555</v>
+        <v>0.210233536656</v>
       </c>
       <c r="R6">
-        <v>0.0023257715</v>
+        <v>1.892101829904</v>
       </c>
       <c r="S6">
-        <v>1.718674733842108E-06</v>
+        <v>0.0008190959386303233</v>
       </c>
       <c r="T6">
-        <v>1.718674733842108E-06</v>
+        <v>0.0008190959386303233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.002166666666666667</v>
+        <v>0.7853443333333333</v>
       </c>
       <c r="H7">
-        <v>0.0065</v>
+        <v>2.356033</v>
       </c>
       <c r="I7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="J7">
-        <v>0.001162869539813164</v>
+        <v>0.2556185382903829</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N7">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O7">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P7">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q7">
-        <v>0.0006643072222222222</v>
+        <v>0.06985061925822221</v>
       </c>
       <c r="R7">
-        <v>0.005978765</v>
+        <v>0.6286555733239999</v>
       </c>
       <c r="S7">
-        <v>4.418126348645821E-06</v>
+        <v>0.0002721466777150846</v>
       </c>
       <c r="T7">
-        <v>4.41812634864582E-06</v>
+        <v>0.0002721466777150846</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -915,16 +915,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H8">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J8">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N8">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O8">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P8">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q8">
-        <v>20.09356891323344</v>
+        <v>7.65044938084311</v>
       </c>
       <c r="R8">
-        <v>180.842120219101</v>
+        <v>68.85404442758799</v>
       </c>
       <c r="S8">
-        <v>0.133636852474547</v>
+        <v>0.02980709983868608</v>
       </c>
       <c r="T8">
-        <v>0.133636852474547</v>
+        <v>0.02980709983868609</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>27</v>
@@ -977,16 +977,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H9">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J9">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O9">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P9">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q9">
-        <v>3.289172978182667</v>
+        <v>1.182112944058667</v>
       </c>
       <c r="R9">
-        <v>29.60255680364401</v>
+        <v>10.639016496528</v>
       </c>
       <c r="S9">
-        <v>0.02187539336325549</v>
+        <v>0.004605658673121858</v>
       </c>
       <c r="T9">
-        <v>0.02187539336325548</v>
+        <v>0.004605658673121859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1039,16 +1039,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H10">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J10">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N10">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O10">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P10">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q10">
-        <v>0.01472944257766667</v>
+        <v>0.004005831928</v>
       </c>
       <c r="R10">
-        <v>0.132564983199</v>
+        <v>0.036052487352</v>
       </c>
       <c r="S10">
-        <v>9.796150963941424E-05</v>
+        <v>1.560721812157572E-05</v>
       </c>
       <c r="T10">
-        <v>9.796150963941423E-05</v>
+        <v>1.560721812157573E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1101,16 +1101,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H11">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J11">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N11">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O11">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P11">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q11">
-        <v>0.7283572957014444</v>
+        <v>0.1485584758684444</v>
       </c>
       <c r="R11">
-        <v>6.555215661312999</v>
+        <v>1.337026282816</v>
       </c>
       <c r="S11">
-        <v>0.004844105937313593</v>
+        <v>0.0005788022509085297</v>
       </c>
       <c r="T11">
-        <v>0.004844105937313592</v>
+        <v>0.0005788022509085299</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1163,16 +1163,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H12">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J12">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N12">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O12">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P12">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q12">
-        <v>0.03584618184522222</v>
+        <v>0.028915094208</v>
       </c>
       <c r="R12">
-        <v>0.322615636607</v>
+        <v>0.260235847872</v>
       </c>
       <c r="S12">
-        <v>0.0002384031893841842</v>
+        <v>0.0001126567939997124</v>
       </c>
       <c r="T12">
-        <v>0.0002384031893841841</v>
+        <v>0.0001126567939997124</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1225,46 +1225,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.3005456666666667</v>
+        <v>0.1080146666666667</v>
       </c>
       <c r="H13">
-        <v>0.901637</v>
+        <v>0.324044</v>
       </c>
       <c r="I13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="J13">
-        <v>0.1613055697336188</v>
+        <v>0.03515725527688655</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N13">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O13">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P13">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q13">
-        <v>0.09214830321888889</v>
+        <v>0.009607112492444442</v>
       </c>
       <c r="R13">
-        <v>0.82933472897</v>
+        <v>0.08646401243199998</v>
       </c>
       <c r="S13">
-        <v>0.0006128532594790727</v>
+        <v>3.743050204878576E-05</v>
       </c>
       <c r="T13">
-        <v>0.0006128532594790726</v>
+        <v>3.743050204878577E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,14 +1272,14 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
       <c r="E14">
         <v>3</v>
       </c>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H14">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J14">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N14">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O14">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P14">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q14">
-        <v>13.01072053237422</v>
+        <v>123.1715645276844</v>
       </c>
       <c r="R14">
-        <v>117.096484791368</v>
+        <v>1108.54408074916</v>
       </c>
       <c r="S14">
-        <v>0.08653075757126222</v>
+        <v>0.4798916950365147</v>
       </c>
       <c r="T14">
-        <v>0.0865307575712622</v>
+        <v>0.4798916950365148</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H15">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J15">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O15">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P15">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q15">
-        <v>2.129761546421333</v>
+        <v>19.03191479610667</v>
       </c>
       <c r="R15">
-        <v>19.16785391779201</v>
+        <v>171.28723316496</v>
       </c>
       <c r="S15">
-        <v>0.01416446380501506</v>
+        <v>0.07415070098619503</v>
       </c>
       <c r="T15">
-        <v>0.01416446380501506</v>
+        <v>0.07415070098619503</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H16">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J16">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N16">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O16">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P16">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q16">
-        <v>0.009537412781333333</v>
+        <v>0.06449354296</v>
       </c>
       <c r="R16">
-        <v>0.08583671503200001</v>
+        <v>0.58044188664</v>
       </c>
       <c r="S16">
-        <v>6.343073400009567E-05</v>
+        <v>0.0002512748439030202</v>
       </c>
       <c r="T16">
-        <v>6.343073400009567E-05</v>
+        <v>0.0002512748439030202</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,13 +1458,13 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H17">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J17">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N17">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O17">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P17">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q17">
-        <v>0.4716162301982222</v>
+        <v>2.391778441457777</v>
       </c>
       <c r="R17">
-        <v>4.244546071784</v>
+        <v>21.52600597311999</v>
       </c>
       <c r="S17">
-        <v>0.003136591058151643</v>
+        <v>0.009318665511997977</v>
       </c>
       <c r="T17">
-        <v>0.003136591058151642</v>
+        <v>0.009318665511997977</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H18">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J18">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N18">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O18">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P18">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q18">
-        <v>0.02321064297511111</v>
+        <v>0.46553048256</v>
       </c>
       <c r="R18">
-        <v>0.208895786776</v>
+        <v>4.189774343039999</v>
       </c>
       <c r="S18">
-        <v>0.000154367662832733</v>
+        <v>0.001813764509881435</v>
       </c>
       <c r="T18">
-        <v>0.000154367662832733</v>
+        <v>0.001813764509881435</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,13 +1582,13 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.1946053333333333</v>
+        <v>1.739026666666666</v>
       </c>
       <c r="H19">
-        <v>0.583816</v>
+        <v>5.217079999999999</v>
       </c>
       <c r="I19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="J19">
-        <v>0.1044464374239327</v>
+        <v>0.566028728690978</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N19">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O19">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P19">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q19">
-        <v>0.05966664388444444</v>
+        <v>0.1546736691377777</v>
       </c>
       <c r="R19">
-        <v>0.5369997949600001</v>
+        <v>1.39206302224</v>
       </c>
       <c r="S19">
-        <v>0.0003968265926709244</v>
+        <v>0.0006026278024857095</v>
       </c>
       <c r="T19">
-        <v>0.0003968265926709244</v>
+        <v>0.0006026278024857095</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,14 +1644,14 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
       <c r="E20">
         <v>3</v>
       </c>
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H20">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J20">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>66.85695766666666</v>
+        <v>70.82787566666666</v>
       </c>
       <c r="N20">
-        <v>200.570873</v>
+        <v>212.483627</v>
       </c>
       <c r="O20">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249051</v>
       </c>
       <c r="P20">
-        <v>0.8284701681115905</v>
+        <v>0.8478221523249052</v>
       </c>
       <c r="Q20">
-        <v>38.25287689856</v>
+        <v>31.16027532300411</v>
       </c>
       <c r="R20">
-        <v>344.2758920870399</v>
+        <v>280.442477907037</v>
       </c>
       <c r="S20">
-        <v>0.2544094624948959</v>
+        <v>0.1214042981422057</v>
       </c>
       <c r="T20">
-        <v>0.2544094624948959</v>
+        <v>0.1214042981422057</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>27</v>
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H21">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J21">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>32.83201200000001</v>
       </c>
       <c r="O21">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="P21">
-        <v>0.1356146188837786</v>
+        <v>0.1310016563252524</v>
       </c>
       <c r="Q21">
-        <v>6.261721328640001</v>
+        <v>4.814745247774668</v>
       </c>
       <c r="R21">
-        <v>56.35549195776001</v>
+        <v>43.33270722997201</v>
       </c>
       <c r="S21">
-        <v>0.04164500258991232</v>
+        <v>0.01875884476245539</v>
       </c>
       <c r="T21">
-        <v>0.04164500258991232</v>
+        <v>0.01875884476245539</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,13 +1768,13 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H22">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J22">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.049009</v>
+        <v>0.037086</v>
       </c>
       <c r="N22">
-        <v>0.147027</v>
+        <v>0.111258</v>
       </c>
       <c r="O22">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="P22">
-        <v>0.0006073039498957699</v>
+        <v>0.0004439259549318796</v>
       </c>
       <c r="Q22">
-        <v>0.02804098944</v>
+        <v>0.016315750822</v>
       </c>
       <c r="R22">
-        <v>0.25236890496</v>
+        <v>0.146841757398</v>
       </c>
       <c r="S22">
-        <v>0.0001864929811729795</v>
+        <v>6.356818919843419E-05</v>
       </c>
       <c r="T22">
-        <v>0.0001864929811729795</v>
+        <v>6.356818919843421E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,13 +1830,13 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H23">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J23">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.423449666666667</v>
+        <v>1.375354666666667</v>
       </c>
       <c r="N23">
-        <v>7.270349</v>
+        <v>4.126064</v>
       </c>
       <c r="O23">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="P23">
-        <v>0.03003061794650479</v>
+        <v>0.0164632377115358</v>
       </c>
       <c r="Q23">
-        <v>1.38660096128</v>
+        <v>0.6050785750204444</v>
       </c>
       <c r="R23">
-        <v>12.47940865152</v>
+        <v>5.445707175183999</v>
       </c>
       <c r="S23">
-        <v>0.009221905222700527</v>
+        <v>0.002357461189279406</v>
       </c>
       <c r="T23">
-        <v>0.009221905222700527</v>
+        <v>0.002357461189279406</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,13 +1892,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H24">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J24">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1192703333333333</v>
+        <v>0.267696</v>
       </c>
       <c r="N24">
-        <v>0.357811</v>
+        <v>0.8030879999999999</v>
       </c>
       <c r="O24">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="P24">
-        <v>0.001477960059146655</v>
+        <v>0.003204368290768604</v>
       </c>
       <c r="Q24">
-        <v>0.06824171392</v>
+        <v>0.117771159792</v>
       </c>
       <c r="R24">
-        <v>0.61417542528</v>
+        <v>1.059940438128</v>
       </c>
       <c r="S24">
-        <v>0.0004538570472531234</v>
+        <v>0.0004588510482571331</v>
       </c>
       <c r="T24">
-        <v>0.0004538570472531234</v>
+        <v>0.0004588510482571332</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,13 +1954,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,418 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.57216</v>
+        <v>0.4399436666666667</v>
       </c>
       <c r="H25">
-        <v>1.71648</v>
+        <v>1.319831</v>
       </c>
       <c r="I25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="J25">
-        <v>0.3070834319536154</v>
+        <v>0.1431954777417525</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.3066033333333333</v>
+        <v>0.08894266666666666</v>
       </c>
       <c r="N25">
-        <v>0.91981</v>
+        <v>0.266828</v>
       </c>
       <c r="O25">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="P25">
-        <v>0.003799331049083693</v>
+        <v>0.001064659392606047</v>
       </c>
       <c r="Q25">
-        <v>0.1754261632</v>
+        <v>0.03912976289644444</v>
       </c>
       <c r="R25">
-        <v>1.5788354688</v>
+        <v>0.3521678660679999</v>
       </c>
       <c r="S25">
-        <v>0.001166711617680551</v>
+        <v>0.0001524544103564669</v>
       </c>
       <c r="T25">
-        <v>0.001166711617680551</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G26">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H26">
-        <v>2.381188</v>
-      </c>
-      <c r="I26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J26">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>66.85695766666666</v>
-      </c>
-      <c r="N26">
-        <v>200.570873</v>
-      </c>
-      <c r="O26">
-        <v>0.8284701681115905</v>
-      </c>
-      <c r="P26">
-        <v>0.8284701681115905</v>
-      </c>
-      <c r="Q26">
-        <v>53.06632843745822</v>
-      </c>
-      <c r="R26">
-        <v>477.596955937124</v>
-      </c>
-      <c r="S26">
-        <v>0.3529296928477444</v>
-      </c>
-      <c r="T26">
-        <v>0.3529296928477444</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G27">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H27">
-        <v>2.381188</v>
-      </c>
-      <c r="I27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J27">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K27">
-        <v>3</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>10.944004</v>
-      </c>
-      <c r="N27">
-        <v>32.83201200000001</v>
-      </c>
-      <c r="O27">
-        <v>0.1356146188837786</v>
-      </c>
-      <c r="P27">
-        <v>0.1356146188837786</v>
-      </c>
-      <c r="Q27">
-        <v>8.686576998917335</v>
-      </c>
-      <c r="R27">
-        <v>78.17919299025603</v>
-      </c>
-      <c r="S27">
-        <v>0.05777205701614244</v>
-      </c>
-      <c r="T27">
-        <v>0.05777205701614242</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
-      <c r="A28" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>2</v>
-      </c>
-      <c r="F28">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G28">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H28">
-        <v>2.381188</v>
-      </c>
-      <c r="I28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J28">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K28">
-        <v>3</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-      <c r="M28">
-        <v>0.049009</v>
-      </c>
-      <c r="N28">
-        <v>0.147027</v>
-      </c>
-      <c r="O28">
-        <v>0.0006073039498957699</v>
-      </c>
-      <c r="P28">
-        <v>0.0006073039498957699</v>
-      </c>
-      <c r="Q28">
-        <v>0.03889988089733334</v>
-      </c>
-      <c r="R28">
-        <v>0.3500989280760001</v>
-      </c>
-      <c r="S28">
-        <v>0.0002587125098185384</v>
-      </c>
-      <c r="T28">
-        <v>0.0002587125098185384</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
-      <c r="A29" t="s">
-        <v>24</v>
-      </c>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29">
-        <v>2</v>
-      </c>
-      <c r="F29">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G29">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H29">
-        <v>2.381188</v>
-      </c>
-      <c r="I29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J29">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K29">
-        <v>3</v>
-      </c>
-      <c r="L29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>2.423449666666667</v>
-      </c>
-      <c r="N29">
-        <v>7.270349</v>
-      </c>
-      <c r="O29">
-        <v>0.03003061794650479</v>
-      </c>
-      <c r="P29">
-        <v>0.03003061794650479</v>
-      </c>
-      <c r="Q29">
-        <v>1.923563088290222</v>
-      </c>
-      <c r="R29">
-        <v>17.312067794612</v>
-      </c>
-      <c r="S29">
-        <v>0.01279309403746727</v>
-      </c>
-      <c r="T29">
-        <v>0.01279309403746727</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
-      <c r="A30" t="s">
-        <v>24</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>23</v>
-      </c>
-      <c r="E30">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G30">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H30">
-        <v>2.381188</v>
-      </c>
-      <c r="I30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J30">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K30">
-        <v>3</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>0.1192703333333333</v>
-      </c>
-      <c r="N30">
-        <v>0.357811</v>
-      </c>
-      <c r="O30">
-        <v>0.001477960059146655</v>
-      </c>
-      <c r="P30">
-        <v>0.001477960059146655</v>
-      </c>
-      <c r="Q30">
-        <v>0.09466836216311111</v>
-      </c>
-      <c r="R30">
-        <v>0.8520152594680001</v>
-      </c>
-      <c r="S30">
-        <v>0.0006296134849427728</v>
-      </c>
-      <c r="T30">
-        <v>0.0006296134849427727</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
-      <c r="A31" t="s">
-        <v>24</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E31">
-        <v>2</v>
-      </c>
-      <c r="F31">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G31">
-        <v>0.7937293333333334</v>
-      </c>
-      <c r="H31">
-        <v>2.381188</v>
-      </c>
-      <c r="I31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="J31">
-        <v>0.4260016913490199</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.3066033333333333</v>
-      </c>
-      <c r="N31">
-        <v>0.91981</v>
-      </c>
-      <c r="O31">
-        <v>0.003799331049083693</v>
-      </c>
-      <c r="P31">
-        <v>0.003799331049083693</v>
-      </c>
-      <c r="Q31">
-        <v>0.2433600593644445</v>
-      </c>
-      <c r="R31">
-        <v>2.19024053428</v>
-      </c>
-      <c r="S31">
-        <v>0.001618521452904499</v>
-      </c>
-      <c r="T31">
-        <v>0.001618521452904499</v>
+        <v>0.0001524544103564669</v>
       </c>
     </row>
   </sheetData>
